--- a/biology/Médecine/Corset_médical/Corset_médical.xlsx
+++ b/biology/Médecine/Corset_médical/Corset_médical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corset_m%C3%A9dical</t>
+          <t>Corset_médical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un corset médical est un appareillage destiné à restreindre les mouvements de la colonne vertébrale.
-Cette orthèse est prescrite en cas de fracture osseuse ou à l'issue d'une fusion vertébrale. Ces corsets d'immobilisation sont fabriqués sur mesure[1].
-Le corset médical est également utilisé dans des affections évolutives (scoliose, cyphose) pour corriger la posture du patient : il s'agit d'un corset orthopédique[1]. Il est fabriqué sur mesure par des professionnels de santé[2].
+Cette orthèse est prescrite en cas de fracture osseuse ou à l'issue d'une fusion vertébrale. Ces corsets d'immobilisation sont fabriqués sur mesure.
+Le corset médical est également utilisé dans des affections évolutives (scoliose, cyphose) pour corriger la posture du patient : il s'agit d'un corset orthopédique. Il est fabriqué sur mesure par des professionnels de santé.
 Les corsets médicaux courants se déclinent en plusieurs matériaux : rigide, souple, semi-rigide.
 </t>
         </is>
